--- a/LPManagement.DataAccess/Data/Data.xlsx
+++ b/LPManagement.DataAccess/Data/Data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
     <sheet name="LaunchPadDetails" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="105">
   <si>
     <t>UserName</t>
   </si>
@@ -190,13 +191,157 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>BATCH ID</t>
+  </si>
+  <si>
+    <t>EMP ID</t>
+  </si>
+  <si>
+    <t>EMPLOYEE NAME</t>
+  </si>
+  <si>
+    <t>EMAIL ID</t>
+  </si>
+  <si>
+    <t>BUSINESS LAYER</t>
+  </si>
+  <si>
+    <t>PRACTICE</t>
+  </si>
+  <si>
+    <t>LP CATEGORY</t>
+  </si>
+  <si>
+    <t>TRAINING LOCATION</t>
+  </si>
+  <si>
+    <t>WORK LOCATION</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>OVERALL SCORE</t>
+  </si>
+  <si>
+    <t>PROJECT SCORE</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>FACULTY</t>
+  </si>
+  <si>
+    <t>UNIX</t>
+  </si>
+  <si>
+    <t>SOFTWARE ENGG &amp; UML</t>
+  </si>
+  <si>
+    <t>ORACLE SQL &amp; PL/SQL</t>
+  </si>
+  <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>CORE JAVA</t>
+  </si>
+  <si>
+    <t>ADV JAVA</t>
+  </si>
+  <si>
+    <t>J2EE</t>
+  </si>
+  <si>
+    <t>HIBERNATE</t>
+  </si>
+  <si>
+    <t>SPRING</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>JAVA SCRIPT</t>
+  </si>
+  <si>
+    <t>INFORMATICA</t>
+  </si>
+  <si>
+    <t>TALEND</t>
+  </si>
+  <si>
+    <t>MANUAL TESTING</t>
+  </si>
+  <si>
+    <t>UFT</t>
+  </si>
+  <si>
+    <t>SELENIUM</t>
+  </si>
+  <si>
+    <t>OOPS</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>FINAL EXAM</t>
+  </si>
+  <si>
+    <t>Proj Reviewer</t>
+  </si>
+  <si>
+    <t>OVERALL FEEDBACK</t>
+  </si>
+  <si>
+    <t>FACULTY FEEDBACK</t>
+  </si>
+  <si>
+    <t>LP17_CHN_CORE_31</t>
+  </si>
+  <si>
+    <t>Prabu Rajendiran</t>
+  </si>
+  <si>
+    <t>prabur@virtusa.com</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Core - CITI</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Chennai DLF</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Evaluations done through eBox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,16 +349,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,15 +401,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1235,4 +1472,301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+    </row>
+    <row r="3" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="7">
+        <v>800345</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="11">
+        <v>78</v>
+      </c>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:AC1"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>